--- a/app/classes/data_reader/schryver_FCL.xlsx
+++ b/app/classes/data_reader/schryver_FCL.xlsx
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Antwerpen</t>
+    <t xml:space="preserve">Antwerp</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
@@ -440,8 +440,8 @@
   </sheetPr>
   <dimension ref="A1:Z377"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,7 +450,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.36"/>
@@ -536,7 +536,7 @@
         <v>43282</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
@@ -596,7 +596,7 @@
         <v>43282</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
@@ -656,7 +656,7 @@
         <v>43282</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
@@ -716,7 +716,7 @@
         <v>43282</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
@@ -776,7 +776,7 @@
         <v>43282</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
@@ -836,7 +836,7 @@
         <v>43282</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
@@ -896,7 +896,7 @@
         <v>43282</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
@@ -956,7 +956,7 @@
         <v>43282</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
@@ -1016,7 +1016,7 @@
         <v>43191</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
@@ -1076,7 +1076,7 @@
         <v>43191</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
@@ -1136,7 +1136,7 @@
         <v>43282</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
@@ -1196,7 +1196,7 @@
         <v>43282</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
@@ -1256,7 +1256,7 @@
         <v>43282</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
@@ -1316,7 +1316,7 @@
         <v>43282</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
@@ -1376,7 +1376,7 @@
         <v>43282</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
@@ -1436,7 +1436,7 @@
         <v>43282</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
@@ -1496,7 +1496,7 @@
         <v>43282</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
@@ -1556,7 +1556,7 @@
         <v>43282</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
@@ -1616,7 +1616,7 @@
         <v>43282</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
@@ -1676,7 +1676,7 @@
         <v>43282</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
@@ -1736,7 +1736,7 @@
         <v>43282</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
@@ -1796,7 +1796,7 @@
         <v>43282</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
@@ -1856,7 +1856,7 @@
         <v>43282</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
@@ -1916,7 +1916,7 @@
         <v>43282</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
@@ -1976,7 +1976,7 @@
         <v>43344</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="3" t="s">
@@ -2036,7 +2036,7 @@
         <v>43282</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3" t="s">
@@ -2096,7 +2096,7 @@
         <v>43313</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="3" t="s">
@@ -2156,7 +2156,7 @@
         <v>43282</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
@@ -2216,7 +2216,7 @@
         <v>43282</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
@@ -2276,7 +2276,7 @@
         <v>43313</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="3" t="s">
@@ -2336,7 +2336,7 @@
         <v>43282</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
@@ -2396,7 +2396,7 @@
         <v>43282</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
@@ -2456,7 +2456,7 @@
         <v>43313</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="3" t="s">
@@ -2516,7 +2516,7 @@
         <v>43282</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="3" t="s">
@@ -2576,7 +2576,7 @@
         <v>43313</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="3" t="s">
@@ -2636,7 +2636,7 @@
         <v>43282</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3" t="s">
@@ -2696,7 +2696,7 @@
         <v>43344</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="3" t="s">
@@ -2756,7 +2756,7 @@
         <v>43282</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3" t="s">
@@ -2816,7 +2816,7 @@
         <v>43313</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="3" t="s">
@@ -2876,7 +2876,7 @@
         <v>43282</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="3" t="s">
@@ -2936,7 +2936,7 @@
         <v>43191</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="3" t="s">
@@ -2996,7 +2996,7 @@
         <v>43282</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="3" t="s">
@@ -3056,7 +3056,7 @@
         <v>43282</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="3" t="s">
@@ -3116,7 +3116,7 @@
         <v>43344</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="3" t="s">
@@ -3176,7 +3176,7 @@
         <v>43282</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="3" t="s">
@@ -3236,7 +3236,7 @@
         <v>43191</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="3" t="s">
@@ -3296,7 +3296,7 @@
         <v>43282</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="3" t="s">
@@ -3356,7 +3356,7 @@
         <v>43191</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="3" t="s">
@@ -3416,7 +3416,7 @@
         <v>43191</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="3" t="s">
@@ -3476,7 +3476,7 @@
         <v>43282</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="3" t="s">
@@ -3536,7 +3536,7 @@
         <v>43282</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="3" t="s">
@@ -3596,7 +3596,7 @@
         <v>43282</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="3" t="s">
@@ -3656,7 +3656,7 @@
         <v>43282</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="3" t="s">
@@ -3716,7 +3716,7 @@
         <v>43282</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="3" t="s">
@@ -3776,7 +3776,7 @@
         <v>43282</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3" t="s">
@@ -3836,7 +3836,7 @@
         <v>43282</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="3" t="s">
@@ -3896,7 +3896,7 @@
         <v>43282</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="3" t="s">
@@ -3956,7 +3956,7 @@
         <v>43282</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="3" t="s">
@@ -4016,7 +4016,7 @@
         <v>43282</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="3" t="s">
@@ -4076,7 +4076,7 @@
         <v>43282</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3" t="s">
@@ -4136,7 +4136,7 @@
         <v>43282</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3" t="s">
@@ -4196,7 +4196,7 @@
         <v>43282</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3" t="s">
@@ -4256,7 +4256,7 @@
         <v>43282</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3" t="s">
@@ -4316,7 +4316,7 @@
         <v>43344</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3" t="s">
@@ -4376,7 +4376,7 @@
         <v>43282</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3" t="s">
@@ -4436,7 +4436,7 @@
         <v>43313</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="3" t="s">
@@ -4496,7 +4496,7 @@
         <v>43282</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="3" t="s">
@@ -4556,7 +4556,7 @@
         <v>43282</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="3" t="s">
@@ -4616,7 +4616,7 @@
         <v>43313</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="3" t="s">
@@ -4676,7 +4676,7 @@
         <v>43282</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="3" t="s">
@@ -4736,7 +4736,7 @@
         <v>43282</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="3" t="s">
@@ -4796,7 +4796,7 @@
         <v>43313</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="3" t="s">
@@ -4856,7 +4856,7 @@
         <v>43282</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="3" t="s">
@@ -4916,7 +4916,7 @@
         <v>43313</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="3" t="s">
@@ -4976,7 +4976,7 @@
         <v>43282</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="3" t="s">
@@ -5036,7 +5036,7 @@
         <v>43344</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="3" t="s">
@@ -5096,7 +5096,7 @@
         <v>43282</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="3" t="s">
@@ -5156,7 +5156,7 @@
         <v>43313</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="3" t="s">
@@ -5216,7 +5216,7 @@
         <v>43282</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="3" t="s">
@@ -5276,7 +5276,7 @@
         <v>43191</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="3" t="s">
@@ -5336,7 +5336,7 @@
         <v>43282</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="3" t="s">
@@ -5396,7 +5396,7 @@
         <v>43282</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="3" t="s">
@@ -5456,7 +5456,7 @@
         <v>43344</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="3" t="s">
@@ -5516,7 +5516,7 @@
         <v>43282</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="3" t="s">
@@ -5576,7 +5576,7 @@
         <v>43191</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="3" t="s">
@@ -5636,7 +5636,7 @@
         <v>43282</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="3" t="s">
@@ -5696,7 +5696,7 @@
         <v>43191</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="3" t="s">
@@ -5756,7 +5756,7 @@
         <v>43191</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="3" t="s">
@@ -5816,7 +5816,7 @@
         <v>43282</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="3" t="s">
@@ -5876,7 +5876,7 @@
         <v>43282</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="3" t="s">
@@ -5936,7 +5936,7 @@
         <v>43282</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="3" t="s">
@@ -5996,7 +5996,7 @@
         <v>43282</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="3" t="s">
@@ -6056,7 +6056,7 @@
         <v>43282</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="3" t="s">
@@ -6116,7 +6116,7 @@
         <v>43282</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="3" t="s">
@@ -6176,7 +6176,7 @@
         <v>43282</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3" t="s">
@@ -6236,7 +6236,7 @@
         <v>43282</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="3" t="s">
@@ -6296,7 +6296,7 @@
         <v>43282</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="3" t="s">
@@ -6356,7 +6356,7 @@
         <v>43282</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="3" t="s">
@@ -6416,7 +6416,7 @@
         <v>43282</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="3" t="s">
@@ -6476,7 +6476,7 @@
         <v>43282</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="3" t="s">
@@ -6536,7 +6536,7 @@
         <v>43282</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3" t="s">
@@ -6596,7 +6596,7 @@
         <v>43282</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3" t="s">
@@ -6656,7 +6656,7 @@
         <v>43344</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3" t="s">
@@ -6716,7 +6716,7 @@
         <v>43282</v>
       </c>
       <c r="B105" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3" t="s">
@@ -6776,7 +6776,7 @@
         <v>43313</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="3" t="s">
@@ -6836,7 +6836,7 @@
         <v>43282</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="3" t="s">
@@ -6896,7 +6896,7 @@
         <v>43282</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="3" t="s">
@@ -6956,7 +6956,7 @@
         <v>43313</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="3" t="s">
@@ -7016,7 +7016,7 @@
         <v>43282</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="3" t="s">
@@ -7076,7 +7076,7 @@
         <v>43282</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="3" t="s">
@@ -7136,7 +7136,7 @@
         <v>43313</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="3" t="s">
@@ -7196,7 +7196,7 @@
         <v>43282</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="3" t="s">
@@ -7256,7 +7256,7 @@
         <v>43313</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="3" t="s">
@@ -7316,7 +7316,7 @@
         <v>43282</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="3" t="s">
@@ -7376,7 +7376,7 @@
         <v>43344</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="3" t="s">
@@ -7436,7 +7436,7 @@
         <v>43282</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="3" t="s">
@@ -7496,7 +7496,7 @@
         <v>43313</v>
       </c>
       <c r="B118" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="3" t="s">
@@ -7556,7 +7556,7 @@
         <v>43282</v>
       </c>
       <c r="B119" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="3" t="s">
@@ -7616,7 +7616,7 @@
         <v>43191</v>
       </c>
       <c r="B120" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="3" t="s">
@@ -7676,7 +7676,7 @@
         <v>43282</v>
       </c>
       <c r="B121" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="3" t="s">
@@ -7736,7 +7736,7 @@
         <v>43282</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="3" t="s">
@@ -7796,7 +7796,7 @@
         <v>43344</v>
       </c>
       <c r="B123" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="3" t="s">
@@ -7856,7 +7856,7 @@
         <v>43282</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="3" t="s">
@@ -7916,7 +7916,7 @@
         <v>43191</v>
       </c>
       <c r="B125" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="3" t="s">
@@ -7976,7 +7976,7 @@
         <v>43282</v>
       </c>
       <c r="B126" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="3" t="s">
@@ -8036,7 +8036,7 @@
         <v>43282</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="3" t="s">
@@ -8096,7 +8096,7 @@
         <v>43282</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="3" t="s">
@@ -8156,7 +8156,7 @@
         <v>43282</v>
       </c>
       <c r="B129" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="3" t="s">
@@ -8216,7 +8216,7 @@
         <v>43282</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="3" t="s">
@@ -8276,7 +8276,7 @@
         <v>43282</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="3" t="s">
@@ -8336,7 +8336,7 @@
         <v>43282</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="3" t="s">
@@ -8396,7 +8396,7 @@
         <v>43282</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="3" t="s">
@@ -8456,7 +8456,7 @@
         <v>43282</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="3" t="s">
@@ -8516,7 +8516,7 @@
         <v>43191</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="3" t="s">
@@ -8576,7 +8576,7 @@
         <v>43191</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="3" t="s">
@@ -8636,7 +8636,7 @@
         <v>43282</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="3" t="s">
@@ -8696,7 +8696,7 @@
         <v>43282</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="3" t="s">
@@ -8756,7 +8756,7 @@
         <v>43282</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="3" t="s">
@@ -8816,7 +8816,7 @@
         <v>43282</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="3" t="s">
@@ -8876,7 +8876,7 @@
         <v>43282</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="3" t="s">
@@ -8936,7 +8936,7 @@
         <v>43282</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="3" t="s">
@@ -8996,7 +8996,7 @@
         <v>43282</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="3" t="s">
@@ -9056,7 +9056,7 @@
         <v>43282</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="3" t="s">
@@ -9116,7 +9116,7 @@
         <v>43282</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="3" t="s">
@@ -9176,7 +9176,7 @@
         <v>43282</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="3" t="s">
@@ -9236,7 +9236,7 @@
         <v>43282</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="3" t="s">
@@ -9296,7 +9296,7 @@
         <v>43282</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="3" t="s">
@@ -9356,7 +9356,7 @@
         <v>43282</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="3" t="s">
@@ -9416,7 +9416,7 @@
         <v>43282</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="3" t="s">
@@ -9476,7 +9476,7 @@
         <v>43344</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="3" t="s">
@@ -9536,7 +9536,7 @@
         <v>43282</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="3" t="s">
@@ -9596,7 +9596,7 @@
         <v>43313</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="3" t="s">
@@ -9656,7 +9656,7 @@
         <v>43282</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="3" t="s">
@@ -9716,7 +9716,7 @@
         <v>43282</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="3" t="s">
@@ -9776,7 +9776,7 @@
         <v>43313</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="3" t="s">
@@ -9836,7 +9836,7 @@
         <v>43282</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="3" t="s">
@@ -9896,7 +9896,7 @@
         <v>43282</v>
       </c>
       <c r="B158" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="3" t="s">
@@ -9956,7 +9956,7 @@
         <v>43313</v>
       </c>
       <c r="B159" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="3" t="s">
@@ -10016,7 +10016,7 @@
         <v>43282</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="3" t="s">
@@ -10076,7 +10076,7 @@
         <v>43313</v>
       </c>
       <c r="B161" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="3" t="s">
@@ -10136,7 +10136,7 @@
         <v>43282</v>
       </c>
       <c r="B162" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="3" t="s">
@@ -10196,7 +10196,7 @@
         <v>43344</v>
       </c>
       <c r="B163" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="3" t="s">
@@ -10256,7 +10256,7 @@
         <v>43282</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="3" t="s">
@@ -10316,7 +10316,7 @@
         <v>43313</v>
       </c>
       <c r="B165" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="3" t="s">
@@ -10376,7 +10376,7 @@
         <v>43282</v>
       </c>
       <c r="B166" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="3" t="s">
@@ -10436,7 +10436,7 @@
         <v>43191</v>
       </c>
       <c r="B167" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="3" t="s">
@@ -10496,7 +10496,7 @@
         <v>43282</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="3" t="s">
@@ -10556,7 +10556,7 @@
         <v>43282</v>
       </c>
       <c r="B169" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="3" t="s">
@@ -10616,7 +10616,7 @@
         <v>43344</v>
       </c>
       <c r="B170" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="3" t="s">
@@ -10676,7 +10676,7 @@
         <v>43282</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="3" t="s">
@@ -10736,7 +10736,7 @@
         <v>43191</v>
       </c>
       <c r="B172" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="3" t="s">
@@ -10796,7 +10796,7 @@
         <v>43282</v>
       </c>
       <c r="B173" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="3" t="s">
@@ -10856,7 +10856,7 @@
         <v>43191</v>
       </c>
       <c r="B174" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="3" t="s">
@@ -10916,7 +10916,7 @@
         <v>43191</v>
       </c>
       <c r="B175" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="3" t="s">
@@ -10976,7 +10976,7 @@
         <v>43282</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="3" t="s">
@@ -11036,7 +11036,7 @@
         <v>43282</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="3" t="s">
@@ -11096,7 +11096,7 @@
         <v>43282</v>
       </c>
       <c r="B178" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="3" t="s">
@@ -11156,7 +11156,7 @@
         <v>43282</v>
       </c>
       <c r="B179" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="3" t="s">
@@ -11216,7 +11216,7 @@
         <v>43282</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="3" t="s">
@@ -11276,7 +11276,7 @@
         <v>43282</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="3" t="s">
@@ -11336,7 +11336,7 @@
         <v>43282</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="3" t="s">
@@ -11396,7 +11396,7 @@
         <v>43282</v>
       </c>
       <c r="B183" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="3" t="s">
@@ -11456,7 +11456,7 @@
         <v>43282</v>
       </c>
       <c r="B184" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="3" t="s">
@@ -11516,7 +11516,7 @@
         <v>43282</v>
       </c>
       <c r="B185" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="3" t="s">
@@ -11576,7 +11576,7 @@
         <v>43282</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="3" t="s">
@@ -11636,7 +11636,7 @@
         <v>43282</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="3" t="s">
@@ -11696,7 +11696,7 @@
         <v>43282</v>
       </c>
       <c r="B188" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="3" t="s">
@@ -11756,7 +11756,7 @@
         <v>43282</v>
       </c>
       <c r="B189" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="3" t="s">
@@ -11816,7 +11816,7 @@
         <v>43344</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="3" t="s">
@@ -11876,7 +11876,7 @@
         <v>43282</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="3" t="s">
@@ -11936,7 +11936,7 @@
         <v>43313</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="3" t="s">
@@ -11996,7 +11996,7 @@
         <v>43282</v>
       </c>
       <c r="B193" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="3" t="s">
@@ -12056,7 +12056,7 @@
         <v>43282</v>
       </c>
       <c r="B194" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="3" t="s">
@@ -12116,7 +12116,7 @@
         <v>43313</v>
       </c>
       <c r="B195" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="3" t="s">
@@ -12176,7 +12176,7 @@
         <v>43282</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="3" t="s">
@@ -12236,7 +12236,7 @@
         <v>43282</v>
       </c>
       <c r="B197" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="3" t="s">
@@ -12296,7 +12296,7 @@
         <v>43313</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="3" t="s">
@@ -12356,7 +12356,7 @@
         <v>43282</v>
       </c>
       <c r="B199" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="3" t="s">
@@ -12416,7 +12416,7 @@
         <v>43313</v>
       </c>
       <c r="B200" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="3" t="s">
@@ -12476,7 +12476,7 @@
         <v>43282</v>
       </c>
       <c r="B201" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="3" t="s">
@@ -12536,7 +12536,7 @@
         <v>43344</v>
       </c>
       <c r="B202" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="3" t="s">
@@ -12596,7 +12596,7 @@
         <v>43282</v>
       </c>
       <c r="B203" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="3" t="s">
@@ -12656,7 +12656,7 @@
         <v>43313</v>
       </c>
       <c r="B204" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="3" t="s">
@@ -12716,7 +12716,7 @@
         <v>43282</v>
       </c>
       <c r="B205" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="3" t="s">
@@ -12776,7 +12776,7 @@
         <v>43191</v>
       </c>
       <c r="B206" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="3" t="s">
@@ -12836,7 +12836,7 @@
         <v>43282</v>
       </c>
       <c r="B207" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="3" t="s">
@@ -12896,7 +12896,7 @@
         <v>43282</v>
       </c>
       <c r="B208" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="3" t="s">
@@ -12956,7 +12956,7 @@
         <v>43344</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="3" t="s">
@@ -13016,7 +13016,7 @@
         <v>43282</v>
       </c>
       <c r="B210" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="3" t="s">
@@ -13076,7 +13076,7 @@
         <v>43191</v>
       </c>
       <c r="B211" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="3" t="s">
@@ -13136,7 +13136,7 @@
         <v>43282</v>
       </c>
       <c r="B212" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="3" t="s">
@@ -13196,7 +13196,7 @@
         <v>43191</v>
       </c>
       <c r="B213" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="3" t="s">
@@ -13256,7 +13256,7 @@
         <v>43191</v>
       </c>
       <c r="B214" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="3" t="s">
@@ -13316,7 +13316,7 @@
         <v>43282</v>
       </c>
       <c r="B215" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="3" t="s">
@@ -13376,7 +13376,7 @@
         <v>43282</v>
       </c>
       <c r="B216" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="3" t="s">
@@ -13436,7 +13436,7 @@
         <v>43282</v>
       </c>
       <c r="B217" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="3" t="s">
@@ -13496,7 +13496,7 @@
         <v>43282</v>
       </c>
       <c r="B218" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="3" t="s">
@@ -13556,7 +13556,7 @@
         <v>43282</v>
       </c>
       <c r="B219" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="3" t="s">
@@ -13616,7 +13616,7 @@
         <v>43282</v>
       </c>
       <c r="B220" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="3" t="s">
@@ -13676,7 +13676,7 @@
         <v>43282</v>
       </c>
       <c r="B221" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="3" t="s">
@@ -13736,7 +13736,7 @@
         <v>43282</v>
       </c>
       <c r="B222" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="3" t="s">
@@ -13796,7 +13796,7 @@
         <v>43282</v>
       </c>
       <c r="B223" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="3" t="s">
@@ -13856,7 +13856,7 @@
         <v>43282</v>
       </c>
       <c r="B224" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="3" t="s">
@@ -13916,7 +13916,7 @@
         <v>43282</v>
       </c>
       <c r="B225" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="3" t="s">
@@ -13976,7 +13976,7 @@
         <v>43282</v>
       </c>
       <c r="B226" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="3" t="s">
@@ -14036,7 +14036,7 @@
         <v>43282</v>
       </c>
       <c r="B227" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
@@ -14096,7 +14096,7 @@
         <v>43282</v>
       </c>
       <c r="B228" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
@@ -14156,7 +14156,7 @@
         <v>43344</v>
       </c>
       <c r="B229" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
@@ -14216,7 +14216,7 @@
         <v>43282</v>
       </c>
       <c r="B230" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
@@ -14276,7 +14276,7 @@
         <v>43313</v>
       </c>
       <c r="B231" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3" t="s">
@@ -14336,7 +14336,7 @@
         <v>43282</v>
       </c>
       <c r="B232" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
@@ -14396,7 +14396,7 @@
         <v>43282</v>
       </c>
       <c r="B233" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
@@ -14456,7 +14456,7 @@
         <v>43313</v>
       </c>
       <c r="B234" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
@@ -14516,7 +14516,7 @@
         <v>43282</v>
       </c>
       <c r="B235" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -14576,7 +14576,7 @@
         <v>43282</v>
       </c>
       <c r="B236" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
@@ -14636,7 +14636,7 @@
         <v>43313</v>
       </c>
       <c r="B237" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
@@ -14696,7 +14696,7 @@
         <v>43282</v>
       </c>
       <c r="B238" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
@@ -14756,7 +14756,7 @@
         <v>43313</v>
       </c>
       <c r="B239" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
@@ -14816,7 +14816,7 @@
         <v>43282</v>
       </c>
       <c r="B240" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
@@ -14876,7 +14876,7 @@
         <v>43344</v>
       </c>
       <c r="B241" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
@@ -14936,7 +14936,7 @@
         <v>43282</v>
       </c>
       <c r="B242" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
@@ -14996,7 +14996,7 @@
         <v>43313</v>
       </c>
       <c r="B243" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3" t="s">
@@ -15056,7 +15056,7 @@
         <v>43282</v>
       </c>
       <c r="B244" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
@@ -15116,7 +15116,7 @@
         <v>43191</v>
       </c>
       <c r="B245" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
@@ -15176,7 +15176,7 @@
         <v>43282</v>
       </c>
       <c r="B246" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3" t="s">
@@ -15236,7 +15236,7 @@
         <v>43282</v>
       </c>
       <c r="B247" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
@@ -15296,7 +15296,7 @@
         <v>43344</v>
       </c>
       <c r="B248" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
@@ -15356,7 +15356,7 @@
         <v>43282</v>
       </c>
       <c r="B249" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
@@ -15416,7 +15416,7 @@
         <v>43191</v>
       </c>
       <c r="B250" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
@@ -15476,7 +15476,7 @@
         <v>43282</v>
       </c>
       <c r="B251" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3" t="s">
@@ -15536,7 +15536,7 @@
         <v>43282</v>
       </c>
       <c r="B252" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
@@ -15596,7 +15596,7 @@
         <v>43282</v>
       </c>
       <c r="B253" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
@@ -15656,7 +15656,7 @@
         <v>43282</v>
       </c>
       <c r="B254" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
@@ -15716,7 +15716,7 @@
         <v>43282</v>
       </c>
       <c r="B255" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3" t="s">
@@ -15776,7 +15776,7 @@
         <v>43282</v>
       </c>
       <c r="B256" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
@@ -15836,7 +15836,7 @@
         <v>43282</v>
       </c>
       <c r="B257" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
@@ -15896,7 +15896,7 @@
         <v>43282</v>
       </c>
       <c r="B258" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
@@ -15956,7 +15956,7 @@
         <v>43282</v>
       </c>
       <c r="B259" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
@@ -16016,7 +16016,7 @@
         <v>43191</v>
       </c>
       <c r="B260" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
@@ -16076,7 +16076,7 @@
         <v>43191</v>
       </c>
       <c r="B261" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
@@ -16136,7 +16136,7 @@
         <v>43282</v>
       </c>
       <c r="B262" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
@@ -16196,7 +16196,7 @@
         <v>43282</v>
       </c>
       <c r="B263" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
@@ -16256,7 +16256,7 @@
         <v>43282</v>
       </c>
       <c r="B264" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
@@ -16316,7 +16316,7 @@
         <v>43282</v>
       </c>
       <c r="B265" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3" t="s">
@@ -16376,7 +16376,7 @@
         <v>43282</v>
       </c>
       <c r="B266" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3" t="s">
@@ -16436,7 +16436,7 @@
         <v>43282</v>
       </c>
       <c r="B267" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
@@ -16496,7 +16496,7 @@
         <v>43282</v>
       </c>
       <c r="B268" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3" t="s">
@@ -16556,7 +16556,7 @@
         <v>43282</v>
       </c>
       <c r="B269" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3" t="s">
@@ -16616,7 +16616,7 @@
         <v>43282</v>
       </c>
       <c r="B270" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3" t="s">
@@ -16676,7 +16676,7 @@
         <v>43282</v>
       </c>
       <c r="B271" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3" t="s">
@@ -16736,7 +16736,7 @@
         <v>43282</v>
       </c>
       <c r="B272" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3" t="s">
@@ -16796,7 +16796,7 @@
         <v>43282</v>
       </c>
       <c r="B273" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3" t="s">
@@ -16856,7 +16856,7 @@
         <v>43282</v>
       </c>
       <c r="B274" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3" t="s">
@@ -16916,7 +16916,7 @@
         <v>43282</v>
       </c>
       <c r="B275" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3" t="s">
@@ -16976,7 +16976,7 @@
         <v>43344</v>
       </c>
       <c r="B276" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3" t="s">
@@ -17036,7 +17036,7 @@
         <v>43282</v>
       </c>
       <c r="B277" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3" t="s">
@@ -17096,7 +17096,7 @@
         <v>43313</v>
       </c>
       <c r="B278" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3" t="s">
@@ -17156,7 +17156,7 @@
         <v>43282</v>
       </c>
       <c r="B279" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3" t="s">
@@ -17216,7 +17216,7 @@
         <v>43282</v>
       </c>
       <c r="B280" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3" t="s">
@@ -17276,7 +17276,7 @@
         <v>43313</v>
       </c>
       <c r="B281" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3" t="s">
@@ -17336,7 +17336,7 @@
         <v>43282</v>
       </c>
       <c r="B282" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3" t="s">
@@ -17396,7 +17396,7 @@
         <v>43282</v>
       </c>
       <c r="B283" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3" t="s">
@@ -17456,7 +17456,7 @@
         <v>43313</v>
       </c>
       <c r="B284" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3" t="s">
@@ -17516,7 +17516,7 @@
         <v>43282</v>
       </c>
       <c r="B285" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3" t="s">
@@ -17576,7 +17576,7 @@
         <v>43313</v>
       </c>
       <c r="B286" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3" t="s">
@@ -17636,7 +17636,7 @@
         <v>43282</v>
       </c>
       <c r="B287" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3" t="s">
@@ -17696,7 +17696,7 @@
         <v>43344</v>
       </c>
       <c r="B288" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3" t="s">
@@ -17756,7 +17756,7 @@
         <v>43282</v>
       </c>
       <c r="B289" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3" t="s">
@@ -17816,7 +17816,7 @@
         <v>43313</v>
       </c>
       <c r="B290" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
@@ -17876,7 +17876,7 @@
         <v>43282</v>
       </c>
       <c r="B291" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3" t="s">
@@ -17936,7 +17936,7 @@
         <v>43191</v>
       </c>
       <c r="B292" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
@@ -17996,7 +17996,7 @@
         <v>43282</v>
       </c>
       <c r="B293" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3" t="s">
@@ -18056,7 +18056,7 @@
         <v>43282</v>
       </c>
       <c r="B294" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
@@ -18116,7 +18116,7 @@
         <v>43344</v>
       </c>
       <c r="B295" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
@@ -18176,7 +18176,7 @@
         <v>43282</v>
       </c>
       <c r="B296" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
@@ -18236,7 +18236,7 @@
         <v>43191</v>
       </c>
       <c r="B297" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3" t="s">
@@ -18296,7 +18296,7 @@
         <v>43282</v>
       </c>
       <c r="B298" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
@@ -18356,7 +18356,7 @@
         <v>43191</v>
       </c>
       <c r="B299" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
@@ -18416,7 +18416,7 @@
         <v>43191</v>
       </c>
       <c r="B300" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
@@ -18476,7 +18476,7 @@
         <v>43282</v>
       </c>
       <c r="B301" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
@@ -18536,7 +18536,7 @@
         <v>43282</v>
       </c>
       <c r="B302" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
@@ -18596,7 +18596,7 @@
         <v>43282</v>
       </c>
       <c r="B303" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
@@ -18656,7 +18656,7 @@
         <v>43282</v>
       </c>
       <c r="B304" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
@@ -18716,7 +18716,7 @@
         <v>43282</v>
       </c>
       <c r="B305" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
@@ -18776,7 +18776,7 @@
         <v>43282</v>
       </c>
       <c r="B306" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3" t="s">
@@ -18836,7 +18836,7 @@
         <v>43282</v>
       </c>
       <c r="B307" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3" t="s">
@@ -18896,7 +18896,7 @@
         <v>43282</v>
       </c>
       <c r="B308" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
@@ -18956,7 +18956,7 @@
         <v>43282</v>
       </c>
       <c r="B309" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3" t="s">
@@ -19016,7 +19016,7 @@
         <v>43282</v>
       </c>
       <c r="B310" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3" t="s">
@@ -19076,7 +19076,7 @@
         <v>43282</v>
       </c>
       <c r="B311" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
@@ -19136,7 +19136,7 @@
         <v>43282</v>
       </c>
       <c r="B312" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3" t="s">
@@ -19196,7 +19196,7 @@
         <v>43282</v>
       </c>
       <c r="B313" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3" t="s">
@@ -19256,7 +19256,7 @@
         <v>43282</v>
       </c>
       <c r="B314" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3" t="s">
@@ -19316,7 +19316,7 @@
         <v>43344</v>
       </c>
       <c r="B315" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3" t="s">
@@ -19376,7 +19376,7 @@
         <v>43282</v>
       </c>
       <c r="B316" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3" t="s">
@@ -19436,7 +19436,7 @@
         <v>43313</v>
       </c>
       <c r="B317" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
@@ -19496,7 +19496,7 @@
         <v>43282</v>
       </c>
       <c r="B318" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3" t="s">
@@ -19556,7 +19556,7 @@
         <v>43282</v>
       </c>
       <c r="B319" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3" t="s">
@@ -19616,7 +19616,7 @@
         <v>43313</v>
       </c>
       <c r="B320" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3" t="s">
@@ -19676,7 +19676,7 @@
         <v>43282</v>
       </c>
       <c r="B321" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
@@ -19736,7 +19736,7 @@
         <v>43282</v>
       </c>
       <c r="B322" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3" t="s">
@@ -19796,7 +19796,7 @@
         <v>43313</v>
       </c>
       <c r="B323" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
@@ -19856,7 +19856,7 @@
         <v>43282</v>
       </c>
       <c r="B324" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3" t="s">
@@ -19916,7 +19916,7 @@
         <v>43313</v>
       </c>
       <c r="B325" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
@@ -19976,7 +19976,7 @@
         <v>43282</v>
       </c>
       <c r="B326" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
@@ -20036,7 +20036,7 @@
         <v>43344</v>
       </c>
       <c r="B327" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
@@ -20096,7 +20096,7 @@
         <v>43282</v>
       </c>
       <c r="B328" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
@@ -20156,7 +20156,7 @@
         <v>43313</v>
       </c>
       <c r="B329" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3" t="s">
@@ -20216,7 +20216,7 @@
         <v>43282</v>
       </c>
       <c r="B330" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
@@ -20276,7 +20276,7 @@
         <v>43191</v>
       </c>
       <c r="B331" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3" t="s">
@@ -20336,7 +20336,7 @@
         <v>43282</v>
       </c>
       <c r="B332" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3" t="s">
@@ -20396,7 +20396,7 @@
         <v>43282</v>
       </c>
       <c r="B333" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3" t="s">
@@ -20456,7 +20456,7 @@
         <v>43344</v>
       </c>
       <c r="B334" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
@@ -20516,7 +20516,7 @@
         <v>43282</v>
       </c>
       <c r="B335" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
@@ -20576,7 +20576,7 @@
         <v>43191</v>
       </c>
       <c r="B336" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
@@ -20636,7 +20636,7 @@
         <v>43282</v>
       </c>
       <c r="B337" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3" t="s">
@@ -20696,7 +20696,7 @@
         <v>43191</v>
       </c>
       <c r="B338" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3" t="s">
@@ -20756,7 +20756,7 @@
         <v>43191</v>
       </c>
       <c r="B339" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
@@ -20816,7 +20816,7 @@
         <v>43282</v>
       </c>
       <c r="B340" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3" t="s">
@@ -20876,7 +20876,7 @@
         <v>43282</v>
       </c>
       <c r="B341" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
@@ -20936,7 +20936,7 @@
         <v>43282</v>
       </c>
       <c r="B342" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
@@ -20996,7 +20996,7 @@
         <v>43282</v>
       </c>
       <c r="B343" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3" t="s">
@@ -21056,7 +21056,7 @@
         <v>43282</v>
       </c>
       <c r="B344" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3" t="s">
@@ -21116,7 +21116,7 @@
         <v>43282</v>
       </c>
       <c r="B345" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3" t="s">
@@ -21176,7 +21176,7 @@
         <v>43282</v>
       </c>
       <c r="B346" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3" t="s">
@@ -21236,7 +21236,7 @@
         <v>43282</v>
       </c>
       <c r="B347" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3" t="s">
@@ -21296,7 +21296,7 @@
         <v>43282</v>
       </c>
       <c r="B348" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3" t="s">
@@ -21356,7 +21356,7 @@
         <v>43282</v>
       </c>
       <c r="B349" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3" t="s">
@@ -21416,7 +21416,7 @@
         <v>43282</v>
       </c>
       <c r="B350" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3" t="s">
@@ -21476,7 +21476,7 @@
         <v>43282</v>
       </c>
       <c r="B351" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3" t="s">
@@ -21536,7 +21536,7 @@
         <v>43282</v>
       </c>
       <c r="B352" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3" t="s">
@@ -21596,7 +21596,7 @@
         <v>43282</v>
       </c>
       <c r="B353" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3" t="s">
@@ -21656,7 +21656,7 @@
         <v>43344</v>
       </c>
       <c r="B354" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3" t="s">
@@ -21716,7 +21716,7 @@
         <v>43282</v>
       </c>
       <c r="B355" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3" t="s">
@@ -21776,7 +21776,7 @@
         <v>43313</v>
       </c>
       <c r="B356" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3" t="s">
@@ -21836,7 +21836,7 @@
         <v>43282</v>
       </c>
       <c r="B357" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3" t="s">
@@ -21896,7 +21896,7 @@
         <v>43282</v>
       </c>
       <c r="B358" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3" t="s">
@@ -21956,7 +21956,7 @@
         <v>43313</v>
       </c>
       <c r="B359" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3" t="s">
@@ -22016,7 +22016,7 @@
         <v>43282</v>
       </c>
       <c r="B360" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3" t="s">
@@ -22076,7 +22076,7 @@
         <v>43282</v>
       </c>
       <c r="B361" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3" t="s">
@@ -22136,7 +22136,7 @@
         <v>43313</v>
       </c>
       <c r="B362" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3" t="s">
@@ -22196,7 +22196,7 @@
         <v>43282</v>
       </c>
       <c r="B363" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3" t="s">
@@ -22256,7 +22256,7 @@
         <v>43313</v>
       </c>
       <c r="B364" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3" t="s">
@@ -22316,7 +22316,7 @@
         <v>43282</v>
       </c>
       <c r="B365" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3" t="s">
@@ -22376,7 +22376,7 @@
         <v>43344</v>
       </c>
       <c r="B366" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
@@ -22436,7 +22436,7 @@
         <v>43282</v>
       </c>
       <c r="B367" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
@@ -22496,7 +22496,7 @@
         <v>43313</v>
       </c>
       <c r="B368" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
@@ -22556,7 +22556,7 @@
         <v>43282</v>
       </c>
       <c r="B369" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
@@ -22616,7 +22616,7 @@
         <v>43191</v>
       </c>
       <c r="B370" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
@@ -22676,7 +22676,7 @@
         <v>43282</v>
       </c>
       <c r="B371" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
@@ -22736,7 +22736,7 @@
         <v>43282</v>
       </c>
       <c r="B372" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
@@ -22796,7 +22796,7 @@
         <v>43344</v>
       </c>
       <c r="B373" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3" t="s">
@@ -22856,7 +22856,7 @@
         <v>43282</v>
       </c>
       <c r="B374" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
@@ -22916,7 +22916,7 @@
         <v>43191</v>
       </c>
       <c r="B375" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3" t="s">
@@ -22976,7 +22976,7 @@
         <v>43282</v>
       </c>
       <c r="B376" s="4" t="n">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
@@ -23673,8 +23673,8 @@
   </sheetPr>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23683,7 +23683,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.36"/>
@@ -23759,8 +23759,8 @@
       <c r="A2" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>43404</v>
+      <c r="B2" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>18</v>
@@ -23806,8 +23806,8 @@
       <c r="A3" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>43404</v>
+      <c r="B3" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>29</v>
@@ -23853,8 +23853,8 @@
       <c r="A4" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>43404</v>
+      <c r="B4" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>31</v>
@@ -23900,8 +23900,8 @@
       <c r="A5" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>43404</v>
+      <c r="B5" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>33</v>
@@ -23947,8 +23947,8 @@
       <c r="A6" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>43404</v>
+      <c r="B6" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>18</v>
@@ -23994,8 +23994,8 @@
       <c r="A7" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>43404</v>
+      <c r="B7" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -24041,8 +24041,8 @@
       <c r="A8" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>43404</v>
+      <c r="B8" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>41</v>
@@ -24088,8 +24088,8 @@
       <c r="A9" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>43404</v>
+      <c r="B9" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>29</v>
@@ -24135,8 +24135,8 @@
       <c r="A10" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>43404</v>
+      <c r="B10" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>29</v>
@@ -24182,8 +24182,8 @@
       <c r="A11" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>43404</v>
+      <c r="B11" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>41</v>
@@ -24229,8 +24229,8 @@
       <c r="A12" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>43404</v>
+      <c r="B12" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>41</v>
@@ -24276,8 +24276,8 @@
       <c r="A13" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>43404</v>
+      <c r="B13" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>41</v>
@@ -24323,8 +24323,8 @@
       <c r="A14" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>43404</v>
+      <c r="B14" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>41</v>
@@ -24370,8 +24370,8 @@
       <c r="A15" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>43404</v>
+      <c r="B15" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>29</v>
@@ -24417,8 +24417,8 @@
       <c r="A16" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>43404</v>
+      <c r="B16" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>41</v>
@@ -24464,8 +24464,8 @@
       <c r="A17" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>43404</v>
+      <c r="B17" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>41</v>
@@ -24511,8 +24511,8 @@
       <c r="A18" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>43404</v>
+      <c r="B18" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>41</v>
@@ -24558,8 +24558,8 @@
       <c r="A19" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>43404</v>
+      <c r="B19" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>41</v>
@@ -24605,8 +24605,8 @@
       <c r="A20" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>43404</v>
+      <c r="B20" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>41</v>
@@ -24652,8 +24652,8 @@
       <c r="A21" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B21" s="8" t="n">
-        <v>43404</v>
+      <c r="B21" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>41</v>
@@ -24699,8 +24699,8 @@
       <c r="A22" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B22" s="8" t="n">
-        <v>43404</v>
+      <c r="B22" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>41</v>
@@ -24746,8 +24746,8 @@
       <c r="A23" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>43404</v>
+      <c r="B23" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>41</v>
@@ -24793,8 +24793,8 @@
       <c r="A24" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B24" s="8" t="n">
-        <v>43404</v>
+      <c r="B24" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>31</v>
@@ -24840,8 +24840,8 @@
       <c r="A25" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B25" s="8" t="n">
-        <v>43404</v>
+      <c r="B25" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>29</v>
@@ -24887,8 +24887,8 @@
       <c r="A26" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B26" s="8" t="n">
-        <v>43404</v>
+      <c r="B26" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>29</v>
@@ -24934,8 +24934,8 @@
       <c r="A27" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B27" s="8" t="n">
-        <v>43404</v>
+      <c r="B27" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>29</v>
@@ -24981,8 +24981,8 @@
       <c r="A28" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B28" s="8" t="n">
-        <v>43404</v>
+      <c r="B28" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>29</v>
@@ -25028,8 +25028,8 @@
       <c r="A29" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B29" s="8" t="n">
-        <v>43404</v>
+      <c r="B29" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>31</v>
@@ -25075,8 +25075,8 @@
       <c r="A30" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B30" s="8" t="n">
-        <v>43404</v>
+      <c r="B30" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>31</v>
@@ -25122,8 +25122,8 @@
       <c r="A31" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B31" s="8" t="n">
-        <v>43404</v>
+      <c r="B31" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>31</v>
@@ -25169,8 +25169,8 @@
       <c r="A32" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B32" s="8" t="n">
-        <v>43404</v>
+      <c r="B32" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>31</v>
@@ -25216,8 +25216,8 @@
       <c r="A33" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B33" s="8" t="n">
-        <v>43404</v>
+      <c r="B33" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>29</v>
@@ -25263,8 +25263,8 @@
       <c r="A34" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B34" s="8" t="n">
-        <v>43404</v>
+      <c r="B34" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>31</v>
@@ -25310,8 +25310,8 @@
       <c r="A35" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B35" s="8" t="n">
-        <v>43404</v>
+      <c r="B35" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>31</v>
@@ -25357,8 +25357,8 @@
       <c r="A36" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B36" s="8" t="n">
-        <v>43404</v>
+      <c r="B36" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>31</v>
@@ -25404,8 +25404,8 @@
       <c r="A37" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B37" s="8" t="n">
-        <v>43404</v>
+      <c r="B37" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>31</v>
@@ -25451,8 +25451,8 @@
       <c r="A38" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B38" s="8" t="n">
-        <v>43404</v>
+      <c r="B38" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>31</v>
@@ -25498,8 +25498,8 @@
       <c r="A39" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B39" s="8" t="n">
-        <v>43404</v>
+      <c r="B39" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>31</v>
@@ -25545,8 +25545,8 @@
       <c r="A40" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B40" s="8" t="n">
-        <v>43404</v>
+      <c r="B40" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>31</v>
@@ -25592,8 +25592,8 @@
       <c r="A41" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B41" s="8" t="n">
-        <v>43404</v>
+      <c r="B41" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>31</v>
@@ -25639,8 +25639,8 @@
       <c r="A42" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B42" s="8" t="n">
-        <v>43404</v>
+      <c r="B42" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>29</v>
@@ -25686,8 +25686,8 @@
       <c r="A43" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B43" s="8" t="n">
-        <v>43404</v>
+      <c r="B43" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>29</v>
@@ -25733,8 +25733,8 @@
       <c r="A44" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B44" s="8" t="n">
-        <v>43404</v>
+      <c r="B44" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>31</v>
@@ -25780,8 +25780,8 @@
       <c r="A45" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B45" s="8" t="n">
-        <v>43404</v>
+      <c r="B45" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>29</v>
@@ -25827,8 +25827,8 @@
       <c r="A46" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B46" s="8" t="n">
-        <v>43404</v>
+      <c r="B46" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>29</v>
@@ -25874,8 +25874,8 @@
       <c r="A47" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B47" s="8" t="n">
-        <v>43404</v>
+      <c r="B47" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>29</v>
@@ -25921,8 +25921,8 @@
       <c r="A48" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B48" s="8" t="n">
-        <v>43404</v>
+      <c r="B48" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>29</v>
@@ -25968,8 +25968,8 @@
       <c r="A49" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B49" s="8" t="n">
-        <v>43404</v>
+      <c r="B49" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>29</v>
@@ -26015,8 +26015,8 @@
       <c r="A50" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B50" s="8" t="n">
-        <v>43404</v>
+      <c r="B50" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>29</v>
@@ -26062,8 +26062,8 @@
       <c r="A51" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B51" s="8" t="n">
-        <v>43404</v>
+      <c r="B51" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>29</v>
@@ -26109,8 +26109,8 @@
       <c r="A52" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B52" s="8" t="n">
-        <v>43404</v>
+      <c r="B52" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>29</v>
@@ -26156,8 +26156,8 @@
       <c r="A53" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B53" s="8" t="n">
-        <v>43404</v>
+      <c r="B53" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>29</v>
@@ -26203,8 +26203,8 @@
       <c r="A54" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B54" s="8" t="n">
-        <v>43404</v>
+      <c r="B54" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>29</v>
@@ -26250,8 +26250,8 @@
       <c r="A55" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B55" s="8" t="n">
-        <v>43404</v>
+      <c r="B55" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>29</v>
@@ -26297,8 +26297,8 @@
       <c r="A56" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B56" s="8" t="n">
-        <v>43404</v>
+      <c r="B56" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>29</v>
@@ -26344,8 +26344,8 @@
       <c r="A57" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B57" s="8" t="n">
-        <v>43404</v>
+      <c r="B57" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>29</v>
@@ -26391,8 +26391,8 @@
       <c r="A58" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B58" s="8" t="n">
-        <v>43404</v>
+      <c r="B58" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>29</v>
@@ -26438,8 +26438,8 @@
       <c r="A59" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B59" s="8" t="n">
-        <v>43404</v>
+      <c r="B59" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>29</v>
@@ -26485,8 +26485,8 @@
       <c r="A60" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B60" s="8" t="n">
-        <v>43404</v>
+      <c r="B60" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>18</v>
@@ -26532,8 +26532,8 @@
       <c r="A61" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B61" s="8" t="n">
-        <v>43404</v>
+      <c r="B61" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>18</v>
@@ -26579,8 +26579,8 @@
       <c r="A62" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B62" s="8" t="n">
-        <v>43404</v>
+      <c r="B62" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>29</v>
@@ -26626,8 +26626,8 @@
       <c r="A63" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B63" s="8" t="n">
-        <v>43404</v>
+      <c r="B63" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>29</v>
@@ -26673,8 +26673,8 @@
       <c r="A64" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B64" s="8" t="n">
-        <v>43404</v>
+      <c r="B64" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>31</v>
@@ -26720,8 +26720,8 @@
       <c r="A65" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B65" s="8" t="n">
-        <v>43404</v>
+      <c r="B65" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>31</v>
@@ -26767,8 +26767,8 @@
       <c r="A66" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B66" s="8" t="n">
-        <v>43404</v>
+      <c r="B66" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>33</v>
@@ -26814,8 +26814,8 @@
       <c r="A67" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B67" s="8" t="n">
-        <v>43404</v>
+      <c r="B67" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>33</v>
@@ -26861,8 +26861,8 @@
       <c r="A68" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B68" s="8" t="n">
-        <v>43404</v>
+      <c r="B68" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>18</v>
@@ -26908,8 +26908,8 @@
       <c r="A69" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B69" s="8" t="n">
-        <v>43404</v>
+      <c r="B69" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>41</v>
@@ -26955,8 +26955,8 @@
       <c r="A70" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B70" s="8" t="n">
-        <v>43404</v>
+      <c r="B70" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>41</v>
@@ -27002,8 +27002,8 @@
       <c r="A71" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B71" s="8" t="n">
-        <v>43404</v>
+      <c r="B71" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>41</v>
@@ -27049,8 +27049,8 @@
       <c r="A72" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B72" s="8" t="n">
-        <v>43404</v>
+      <c r="B72" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>41</v>
@@ -27096,8 +27096,8 @@
       <c r="A73" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B73" s="8" t="n">
-        <v>43404</v>
+      <c r="B73" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>41</v>
@@ -27143,8 +27143,8 @@
       <c r="A74" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B74" s="8" t="n">
-        <v>43404</v>
+      <c r="B74" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>41</v>
@@ -27190,8 +27190,8 @@
       <c r="A75" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B75" s="8" t="n">
-        <v>43404</v>
+      <c r="B75" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>41</v>
@@ -27237,8 +27237,8 @@
       <c r="A76" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B76" s="8" t="n">
-        <v>43404</v>
+      <c r="B76" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>41</v>
@@ -27284,8 +27284,8 @@
       <c r="A77" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B77" s="8" t="n">
-        <v>43404</v>
+      <c r="B77" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>41</v>
@@ -27331,8 +27331,8 @@
       <c r="A78" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B78" s="8" t="n">
-        <v>43404</v>
+      <c r="B78" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>41</v>
@@ -27378,8 +27378,8 @@
       <c r="A79" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B79" s="8" t="n">
-        <v>43404</v>
+      <c r="B79" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>41</v>
@@ -27425,8 +27425,8 @@
       <c r="A80" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B80" s="8" t="n">
-        <v>43404</v>
+      <c r="B80" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>41</v>
@@ -27472,8 +27472,8 @@
       <c r="A81" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B81" s="8" t="n">
-        <v>43404</v>
+      <c r="B81" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>41</v>
@@ -27519,8 +27519,8 @@
       <c r="A82" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B82" s="8" t="n">
-        <v>43404</v>
+      <c r="B82" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>41</v>
@@ -27566,8 +27566,8 @@
       <c r="A83" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B83" s="8" t="n">
-        <v>43404</v>
+      <c r="B83" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>41</v>
@@ -27613,8 +27613,8 @@
       <c r="A84" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B84" s="8" t="n">
-        <v>43404</v>
+      <c r="B84" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>41</v>
@@ -27660,8 +27660,8 @@
       <c r="A85" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B85" s="8" t="n">
-        <v>43404</v>
+      <c r="B85" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>41</v>
@@ -27707,8 +27707,8 @@
       <c r="A86" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B86" s="8" t="n">
-        <v>43404</v>
+      <c r="B86" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>31</v>
@@ -27754,8 +27754,8 @@
       <c r="A87" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B87" s="8" t="n">
-        <v>43404</v>
+      <c r="B87" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>41</v>
@@ -27801,8 +27801,8 @@
       <c r="A88" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B88" s="8" t="n">
-        <v>43404</v>
+      <c r="B88" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>29</v>
@@ -27848,8 +27848,8 @@
       <c r="A89" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B89" s="8" t="n">
-        <v>43404</v>
+      <c r="B89" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>41</v>
@@ -27895,8 +27895,8 @@
       <c r="A90" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B90" s="8" t="n">
-        <v>43404</v>
+      <c r="B90" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>41</v>
@@ -27942,8 +27942,8 @@
       <c r="A91" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B91" s="8" t="n">
-        <v>43404</v>
+      <c r="B91" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>31</v>
@@ -27989,8 +27989,8 @@
       <c r="A92" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B92" s="8" t="n">
-        <v>43404</v>
+      <c r="B92" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>31</v>
@@ -28036,8 +28036,8 @@
       <c r="A93" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B93" s="8" t="n">
-        <v>43404</v>
+      <c r="B93" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>31</v>
@@ -28083,8 +28083,8 @@
       <c r="A94" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B94" s="8" t="n">
-        <v>43404</v>
+      <c r="B94" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>31</v>
@@ -28130,8 +28130,8 @@
       <c r="A95" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B95" s="8" t="n">
-        <v>43404</v>
+      <c r="B95" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>41</v>
@@ -28177,8 +28177,8 @@
       <c r="A96" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B96" s="8" t="n">
-        <v>43404</v>
+      <c r="B96" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>31</v>
@@ -28224,8 +28224,8 @@
       <c r="A97" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B97" s="8" t="n">
-        <v>43404</v>
+      <c r="B97" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>31</v>
@@ -28271,8 +28271,8 @@
       <c r="A98" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B98" s="8" t="n">
-        <v>43404</v>
+      <c r="B98" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>31</v>
@@ -28318,8 +28318,8 @@
       <c r="A99" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B99" s="8" t="n">
-        <v>43404</v>
+      <c r="B99" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>31</v>
@@ -28365,8 +28365,8 @@
       <c r="A100" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B100" s="8" t="n">
-        <v>43404</v>
+      <c r="B100" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>31</v>
@@ -28412,8 +28412,8 @@
       <c r="A101" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B101" s="8" t="n">
-        <v>43404</v>
+      <c r="B101" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>31</v>
@@ -28459,8 +28459,8 @@
       <c r="A102" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B102" s="8" t="n">
-        <v>43404</v>
+      <c r="B102" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>31</v>
@@ -28506,8 +28506,8 @@
       <c r="A103" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B103" s="8" t="n">
-        <v>43404</v>
+      <c r="B103" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>31</v>
@@ -28553,8 +28553,8 @@
       <c r="A104" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B104" s="8" t="n">
-        <v>43404</v>
+      <c r="B104" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>29</v>
@@ -28600,8 +28600,8 @@
       <c r="A105" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B105" s="8" t="n">
-        <v>43404</v>
+      <c r="B105" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>41</v>
@@ -28647,8 +28647,8 @@
       <c r="A106" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B106" s="8" t="n">
-        <v>43404</v>
+      <c r="B106" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>31</v>
@@ -28694,8 +28694,8 @@
       <c r="A107" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B107" s="8" t="n">
-        <v>43404</v>
+      <c r="B107" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>41</v>
@@ -28741,8 +28741,8 @@
       <c r="A108" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B108" s="8" t="n">
-        <v>43404</v>
+      <c r="B108" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>41</v>
@@ -28788,8 +28788,8 @@
       <c r="A109" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B109" s="8" t="n">
-        <v>43404</v>
+      <c r="B109" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>29</v>
@@ -28835,8 +28835,8 @@
       <c r="A110" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B110" s="8" t="n">
-        <v>43404</v>
+      <c r="B110" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>29</v>
@@ -28882,8 +28882,8 @@
       <c r="A111" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B111" s="8" t="n">
-        <v>43404</v>
+      <c r="B111" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>29</v>
@@ -28929,8 +28929,8 @@
       <c r="A112" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B112" s="8" t="n">
-        <v>43404</v>
+      <c r="B112" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>29</v>
@@ -28976,8 +28976,8 @@
       <c r="A113" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B113" s="8" t="n">
-        <v>43404</v>
+      <c r="B113" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>41</v>
@@ -29023,8 +29023,8 @@
       <c r="A114" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B114" s="8" t="n">
-        <v>43404</v>
+      <c r="B114" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>29</v>
@@ -29070,8 +29070,8 @@
       <c r="A115" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B115" s="8" t="n">
-        <v>43404</v>
+      <c r="B115" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>29</v>
@@ -29117,8 +29117,8 @@
       <c r="A116" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B116" s="8" t="n">
-        <v>43404</v>
+      <c r="B116" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>29</v>
@@ -29164,8 +29164,8 @@
       <c r="A117" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B117" s="8" t="n">
-        <v>43404</v>
+      <c r="B117" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>29</v>
@@ -29211,8 +29211,8 @@
       <c r="A118" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B118" s="8" t="n">
-        <v>43404</v>
+      <c r="B118" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>29</v>
@@ -29258,8 +29258,8 @@
       <c r="A119" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B119" s="8" t="n">
-        <v>43404</v>
+      <c r="B119" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>29</v>
@@ -29305,8 +29305,8 @@
       <c r="A120" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B120" s="8" t="n">
-        <v>43404</v>
+      <c r="B120" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>29</v>
@@ -29352,8 +29352,8 @@
       <c r="A121" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B121" s="8" t="n">
-        <v>43404</v>
+      <c r="B121" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>29</v>
@@ -29399,8 +29399,8 @@
       <c r="A122" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B122" s="8" t="n">
-        <v>43404</v>
+      <c r="B122" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>18</v>
@@ -29446,8 +29446,8 @@
       <c r="A123" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B123" s="8" t="n">
-        <v>43404</v>
+      <c r="B123" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>18</v>
@@ -29493,8 +29493,8 @@
       <c r="A124" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B124" s="8" t="n">
-        <v>43404</v>
+      <c r="B124" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>29</v>
@@ -29540,8 +29540,8 @@
       <c r="A125" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B125" s="8" t="n">
-        <v>43404</v>
+      <c r="B125" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>29</v>
@@ -29587,8 +29587,8 @@
       <c r="A126" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B126" s="8" t="n">
-        <v>43404</v>
+      <c r="B126" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>31</v>
@@ -29634,8 +29634,8 @@
       <c r="A127" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B127" s="8" t="n">
-        <v>43404</v>
+      <c r="B127" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>31</v>
@@ -29681,8 +29681,8 @@
       <c r="A128" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B128" s="8" t="n">
-        <v>43404</v>
+      <c r="B128" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>33</v>
@@ -29728,8 +29728,8 @@
       <c r="A129" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B129" s="8" t="n">
-        <v>43404</v>
+      <c r="B129" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>33</v>
@@ -29775,8 +29775,8 @@
       <c r="A130" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B130" s="8" t="n">
-        <v>43404</v>
+      <c r="B130" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>18</v>
@@ -29822,8 +29822,8 @@
       <c r="A131" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B131" s="8" t="n">
-        <v>43404</v>
+      <c r="B131" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>31</v>
@@ -29869,8 +29869,8 @@
       <c r="A132" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B132" s="8" t="n">
-        <v>43404</v>
+      <c r="B132" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>41</v>
@@ -29916,8 +29916,8 @@
       <c r="A133" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B133" s="8" t="n">
-        <v>43404</v>
+      <c r="B133" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>31</v>
@@ -29963,8 +29963,8 @@
       <c r="A134" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B134" s="8" t="n">
-        <v>43404</v>
+      <c r="B134" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>31</v>
@@ -30010,8 +30010,8 @@
       <c r="A135" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B135" s="8" t="n">
-        <v>43404</v>
+      <c r="B135" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>31</v>
@@ -30057,8 +30057,8 @@
       <c r="A136" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B136" s="8" t="n">
-        <v>43404</v>
+      <c r="B136" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>41</v>
@@ -30104,8 +30104,8 @@
       <c r="A137" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B137" s="8" t="n">
-        <v>43404</v>
+      <c r="B137" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>41</v>
@@ -30151,8 +30151,8 @@
       <c r="A138" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B138" s="8" t="n">
-        <v>43404</v>
+      <c r="B138" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>41</v>
@@ -30198,8 +30198,8 @@
       <c r="A139" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B139" s="8" t="n">
-        <v>43404</v>
+      <c r="B139" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>41</v>
@@ -30245,8 +30245,8 @@
       <c r="A140" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B140" s="8" t="n">
-        <v>43404</v>
+      <c r="B140" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>41</v>
@@ -30292,8 +30292,8 @@
       <c r="A141" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B141" s="8" t="n">
-        <v>43404</v>
+      <c r="B141" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>41</v>
@@ -30339,8 +30339,8 @@
       <c r="A142" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B142" s="8" t="n">
-        <v>43404</v>
+      <c r="B142" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>41</v>
@@ -30386,8 +30386,8 @@
       <c r="A143" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B143" s="8" t="n">
-        <v>43404</v>
+      <c r="B143" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>41</v>
@@ -30433,8 +30433,8 @@
       <c r="A144" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B144" s="8" t="n">
-        <v>43404</v>
+      <c r="B144" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>41</v>
@@ -30480,8 +30480,8 @@
       <c r="A145" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B145" s="8" t="n">
-        <v>43404</v>
+      <c r="B145" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>41</v>
@@ -30527,8 +30527,8 @@
       <c r="A146" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B146" s="8" t="n">
-        <v>43404</v>
+      <c r="B146" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>41</v>
@@ -30574,8 +30574,8 @@
       <c r="A147" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B147" s="8" t="n">
-        <v>43404</v>
+      <c r="B147" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>41</v>
@@ -30621,8 +30621,8 @@
       <c r="A148" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B148" s="8" t="n">
-        <v>43404</v>
+      <c r="B148" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>31</v>
@@ -30668,8 +30668,8 @@
       <c r="A149" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B149" s="8" t="n">
-        <v>43404</v>
+      <c r="B149" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>31</v>
@@ -30715,8 +30715,8 @@
       <c r="A150" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B150" s="8" t="n">
-        <v>43404</v>
+      <c r="B150" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>29</v>
@@ -30762,8 +30762,8 @@
       <c r="A151" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B151" s="8" t="n">
-        <v>43404</v>
+      <c r="B151" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>31</v>
@@ -30809,8 +30809,8 @@
       <c r="A152" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B152" s="8" t="n">
-        <v>43404</v>
+      <c r="B152" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>31</v>
@@ -30856,8 +30856,8 @@
       <c r="A153" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B153" s="8" t="n">
-        <v>43404</v>
+      <c r="B153" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>31</v>
@@ -30903,8 +30903,8 @@
       <c r="A154" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B154" s="8" t="n">
-        <v>43404</v>
+      <c r="B154" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>31</v>
@@ -30950,8 +30950,8 @@
       <c r="A155" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B155" s="8" t="n">
-        <v>43404</v>
+      <c r="B155" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>31</v>
@@ -30997,8 +30997,8 @@
       <c r="A156" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B156" s="8" t="n">
-        <v>43404</v>
+      <c r="B156" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>31</v>
@@ -31044,8 +31044,8 @@
       <c r="A157" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B157" s="8" t="n">
-        <v>43404</v>
+      <c r="B157" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>31</v>
@@ -31091,8 +31091,8 @@
       <c r="A158" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B158" s="8" t="n">
-        <v>43404</v>
+      <c r="B158" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>31</v>
@@ -31138,8 +31138,8 @@
       <c r="A159" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B159" s="8" t="n">
-        <v>43404</v>
+      <c r="B159" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>31</v>
@@ -31185,8 +31185,8 @@
       <c r="A160" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B160" s="8" t="n">
-        <v>43404</v>
+      <c r="B160" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>31</v>
@@ -31232,8 +31232,8 @@
       <c r="A161" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B161" s="8" t="n">
-        <v>43404</v>
+      <c r="B161" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>31</v>
@@ -31279,8 +31279,8 @@
       <c r="A162" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B162" s="8" t="n">
-        <v>43404</v>
+      <c r="B162" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>31</v>
@@ -31326,8 +31326,8 @@
       <c r="A163" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B163" s="8" t="n">
-        <v>43404</v>
+      <c r="B163" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>31</v>
@@ -31373,8 +31373,8 @@
       <c r="A164" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B164" s="8" t="n">
-        <v>43404</v>
+      <c r="B164" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>31</v>
@@ -31420,8 +31420,8 @@
       <c r="A165" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B165" s="8" t="n">
-        <v>43404</v>
+      <c r="B165" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>31</v>
@@ -31467,8 +31467,8 @@
       <c r="A166" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B166" s="8" t="n">
-        <v>43404</v>
+      <c r="B166" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>29</v>
@@ -31514,8 +31514,8 @@
       <c r="A167" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B167" s="8" t="n">
-        <v>43404</v>
+      <c r="B167" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>31</v>
@@ -31561,8 +31561,8 @@
       <c r="A168" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B168" s="8" t="n">
-        <v>43404</v>
+      <c r="B168" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>31</v>
@@ -31608,8 +31608,8 @@
       <c r="A169" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B169" s="8" t="n">
-        <v>43404</v>
+      <c r="B169" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>31</v>
@@ -31655,8 +31655,8 @@
       <c r="A170" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B170" s="8" t="n">
-        <v>43404</v>
+      <c r="B170" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>31</v>
@@ -31702,8 +31702,8 @@
       <c r="A171" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B171" s="8" t="n">
-        <v>43404</v>
+      <c r="B171" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>31</v>
@@ -31749,8 +31749,8 @@
       <c r="A172" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B172" s="8" t="n">
-        <v>43404</v>
+      <c r="B172" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>29</v>
@@ -31796,8 +31796,8 @@
       <c r="A173" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B173" s="8" t="n">
-        <v>43404</v>
+      <c r="B173" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>29</v>
@@ -31843,8 +31843,8 @@
       <c r="A174" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B174" s="8" t="n">
-        <v>43404</v>
+      <c r="B174" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>29</v>
@@ -31890,8 +31890,8 @@
       <c r="A175" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B175" s="8" t="n">
-        <v>43404</v>
+      <c r="B175" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>29</v>
@@ -31937,8 +31937,8 @@
       <c r="A176" s="8" t="n">
         <v>43344</v>
       </c>
-      <c r="B176" s="8" t="n">
-        <v>43404</v>
+      <c r="B176" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>29</v>
@@ -31984,8 +31984,8 @@
       <c r="A177" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B177" s="8" t="n">
-        <v>43404</v>
+      <c r="B177" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>29</v>
@@ -32031,8 +32031,8 @@
       <c r="A178" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B178" s="8" t="n">
-        <v>43404</v>
+      <c r="B178" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>29</v>
@@ -32078,8 +32078,8 @@
       <c r="A179" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B179" s="8" t="n">
-        <v>43404</v>
+      <c r="B179" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>29</v>
@@ -32125,8 +32125,8 @@
       <c r="A180" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B180" s="8" t="n">
-        <v>43404</v>
+      <c r="B180" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>29</v>
@@ -32172,8 +32172,8 @@
       <c r="A181" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B181" s="8" t="n">
-        <v>43404</v>
+      <c r="B181" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>29</v>
@@ -32219,8 +32219,8 @@
       <c r="A182" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B182" s="8" t="n">
-        <v>43404</v>
+      <c r="B182" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>29</v>
@@ -32266,8 +32266,8 @@
       <c r="A183" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B183" s="8" t="n">
-        <v>43404</v>
+      <c r="B183" s="4" t="n">
+        <v>43465</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>29</v>
